--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EmpSchul\Organisation_Verwaltung_Formulare\Hiwi_Organisation\Anna Lugovaya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empshiwi\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351396D2-3031-49C2-9EE4-1E93D0C96BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C940E0B-C673-40E6-9451-42A4E6345865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -514,21 +514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2628,8 +2628,17 @@
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2642,8 +2651,17 @@
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2656,8 +2674,17 @@
       <c r="D94" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <v>6</v>
+      </c>
+      <c r="G94" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2670,8 +2697,17 @@
       <c r="D95" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2684,8 +2720,17 @@
       <c r="D96" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96" s="2">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2698,8 +2743,17 @@
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97" s="1">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1">
+        <v>8</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2712,8 +2766,17 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2726,8 +2789,11 @@
       <c r="D99" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2739,6 +2805,15 @@
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2752,21 +2827,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -2812,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -2835,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -2858,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -2881,7 +2956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -2904,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -2927,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -2950,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -2973,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -2996,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -3019,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -3042,7 +3117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -3065,7 +3140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -3088,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -3111,7 +3186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -3134,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -3154,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -3177,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -3200,7 +3275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -3223,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -3246,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -3269,7 +3344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -3292,7 +3367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -3315,7 +3390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -3335,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -3358,7 +3433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -3381,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -3404,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -3427,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -3450,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -3473,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -3496,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -3519,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -3542,7 +3617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -3565,7 +3640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -3588,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -3611,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -3625,7 +3700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -3639,7 +3714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -3653,7 +3728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -3667,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -3681,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -3695,7 +3770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -3709,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -3723,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -3737,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -3751,7 +3826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -3765,7 +3840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -3779,7 +3854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -3793,7 +3868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -3807,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -3821,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -3835,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -3849,7 +3924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -3863,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -3877,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -3891,7 +3966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -3905,7 +3980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -3919,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -3933,7 +4008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -3947,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -3961,7 +4036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -3975,7 +4050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -3989,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -4003,7 +4078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -4017,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -4031,7 +4106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -4045,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -4059,7 +4134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -4073,7 +4148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -4087,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -4101,7 +4176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>208</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empshiwi\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C940E0B-C673-40E6-9451-42A4E6345865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBF93D-73EC-4421-9901-FB593B01799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -514,21 +514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2827,21 +2827,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -3699,8 +3699,17 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -3713,8 +3722,17 @@
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -3727,8 +3745,14 @@
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -3741,8 +3765,17 @@
       <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -3755,8 +3788,17 @@
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -3769,8 +3811,17 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -3783,8 +3834,17 @@
       <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -3797,8 +3857,17 @@
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -3811,8 +3880,17 @@
       <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -3826,7 +3904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -3840,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -3854,7 +3932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -3868,7 +3946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -3882,7 +3960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -3896,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -3910,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -3924,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -3938,7 +4016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -3952,7 +4030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -3966,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -3980,7 +4058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -3994,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -4008,7 +4086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -4022,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -4036,7 +4114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -4050,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -4064,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -4078,7 +4156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -4092,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -4106,7 +4184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -4120,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -4134,7 +4212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -4148,7 +4226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -4162,7 +4240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -4176,7 +4254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>208</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBF93D-73EC-4421-9901-FB593B01799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE16302-41E5-47AB-9E8A-C974EFD6F8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -2827,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE16302-41E5-47AB-9E8A-C974EFD6F8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896BF3A-31E7-42F9-AD38-23F759D64384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="29">
   <si>
     <t>Event</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Nicht über Ereignis gesprochen!</t>
+  </si>
+  <si>
+    <t>nicht erfragt worden</t>
   </si>
 </sst>
 </file>
@@ -2827,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -3748,6 +3751,9 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G40" s="1">
         <v>6</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896BF3A-31E7-42F9-AD38-23F759D64384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D288760-E4C4-4156-85B6-D7EEAED087E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="29">
   <si>
     <t>Event</t>
   </si>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2819,6 +2819,216 @@
         <v>8</v>
       </c>
     </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>5</v>
+      </c>
+      <c r="G101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>112</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3</v>
+      </c>
+      <c r="G104" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>112</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4</v>
+      </c>
+      <c r="G105" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>112</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>112</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1">
+        <v>6</v>
+      </c>
+      <c r="G107" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>112</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="1">
+        <v>8</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="3">
+        <v>9</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3">
+        <v>9</v>
+      </c>
+      <c r="F109" s="3">
+        <v>6</v>
+      </c>
+      <c r="G109" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2830,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D288760-E4C4-4156-85B6-D7EEAED087E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EF787-F09B-4782-B031-44AA05B74414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -517,21 +517,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -623,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -853,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -968,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
     </row>
   </sheetData>
@@ -3040,21 +3040,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -4119,8 +4119,17 @@
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -4133,8 +4142,17 @@
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -4147,8 +4165,17 @@
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -4161,8 +4188,17 @@
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -4175,8 +4211,17 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -4189,8 +4234,17 @@
       <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -4203,8 +4257,17 @@
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -4217,8 +4280,17 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -4231,8 +4303,17 @@
       <c r="D55" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>10</v>
+      </c>
+      <c r="G55" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -4246,7 +4327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -4260,7 +4341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -4274,7 +4355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -4288,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -4302,7 +4383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -4316,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -4330,7 +4411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -4344,7 +4425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -4358,7 +4439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -4372,7 +4453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -4386,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -4400,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -4414,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -4428,7 +4509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -4442,7 +4523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -4456,7 +4537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -4470,7 +4551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>208</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EF787-F09B-4782-B031-44AA05B74414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C450D-0B9B-47AC-9C90-FC3685BE6AB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="29">
   <si>
     <t>Event</t>
   </si>
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="C127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3027,328 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
+      <c r="A110" s="1">
+        <v>113</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>10</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>10</v>
+      </c>
+      <c r="G114" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>6</v>
+      </c>
+      <c r="F116" s="1">
+        <v>10</v>
+      </c>
+      <c r="G116" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1">
+        <v>10</v>
+      </c>
+      <c r="G117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>113</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="3">
+        <v>9</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>114</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>114</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>114</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>114</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="1">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>114</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>114</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="3">
+        <v>9</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3040,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+    <sheetView topLeftCell="C45" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C450D-0B9B-47AC-9C90-FC3685BE6AB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0E324-3870-4FCD-8890-375B0DE90E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
-      <selection activeCell="C127" sqref="A127:XFD127"/>
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3237,6 +3237,15 @@
       <c r="D119" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1">
+        <v>10</v>
+      </c>
+      <c r="G119" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -3251,6 +3260,15 @@
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
@@ -3265,6 +3283,15 @@
       <c r="D121" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E121" s="1">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1">
+        <v>9</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -3279,6 +3306,15 @@
       <c r="D122" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>10</v>
+      </c>
+      <c r="G122" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
@@ -3293,6 +3329,15 @@
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
@@ -3307,6 +3352,15 @@
       <c r="D124" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E124" s="1">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1">
+        <v>9</v>
+      </c>
+      <c r="G124" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
@@ -3321,6 +3375,15 @@
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1">
+        <v>10</v>
+      </c>
+      <c r="G125" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
@@ -3335,6 +3398,15 @@
       <c r="D126" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E126" s="1">
+        <v>9</v>
+      </c>
+      <c r="F126" s="1">
+        <v>6</v>
+      </c>
+      <c r="G126" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
@@ -3348,6 +3420,15 @@
       </c>
       <c r="D127" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E127" s="3">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3">
+        <v>9</v>
+      </c>
+      <c r="G127" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0E324-3870-4FCD-8890-375B0DE90E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC175F4B-1B2C-42F8-9DA1-BFFD08200D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>nicht erfragt worden</t>
+  </si>
+  <si>
+    <t>nicht erkannnt</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+    <sheetView topLeftCell="C101" workbookViewId="0">
       <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
@@ -3440,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4554,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -4728,8 +4731,17 @@
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -4742,8 +4754,17 @@
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -4756,8 +4777,20 @@
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -4770,8 +4803,17 @@
       <c r="D59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -4784,8 +4826,17 @@
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -4798,8 +4849,17 @@
       <c r="D61" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -4812,8 +4872,17 @@
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -4826,8 +4895,17 @@
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -4839,6 +4917,15 @@
       </c>
       <c r="D64" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3">
+        <v>7</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC175F4B-1B2C-42F8-9DA1-BFFD08200D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C9558-17A7-48CF-A2C1-FC970F0DA12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView topLeftCell="C101" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3434,6 +3434,204 @@
         <v>9</v>
       </c>
     </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1">
+        <v>8</v>
+      </c>
+      <c r="F130" s="1">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>7</v>
+      </c>
+      <c r="F131" s="1">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>8</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>115</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
+        <v>10</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>115</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="1">
+        <v>6</v>
+      </c>
+      <c r="F134" s="1">
+        <v>8</v>
+      </c>
+      <c r="G134" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>115</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1">
+        <v>9</v>
+      </c>
+      <c r="F135" s="1">
+        <v>8</v>
+      </c>
+      <c r="G135" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>115</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="1">
+        <v>9</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="1">
+        <v>10</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3445,7 +3643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+    <sheetView topLeftCell="D45" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C9558-17A7-48CF-A2C1-FC970F0DA12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78319B-55C8-4702-91F1-1C30C5E45255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3609,27 +3609,234 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
         <v>115</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
         <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="1">
-        <v>10</v>
-      </c>
-      <c r="F136" s="1">
+      <c r="E136" s="3">
+        <v>10</v>
+      </c>
+      <c r="F136" s="3">
         <v>0</v>
       </c>
-      <c r="G136" s="1">
-        <v>1</v>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>116</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>10</v>
+      </c>
+      <c r="G137" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>116</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>8</v>
+      </c>
+      <c r="F138" s="1">
+        <v>7</v>
+      </c>
+      <c r="G138" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>116</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>116</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1">
+        <v>8</v>
+      </c>
+      <c r="F141" s="1">
+        <v>7</v>
+      </c>
+      <c r="G141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>116</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>10</v>
+      </c>
+      <c r="G142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>116</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1">
+        <v>9</v>
+      </c>
+      <c r="F143" s="1">
+        <v>10</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>116</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="1">
+        <v>8</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="1">
+        <v>8</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>116</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1">
+        <v>10</v>
+      </c>
+      <c r="F145" s="1">
+        <v>8</v>
+      </c>
+      <c r="G145" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE78319B-55C8-4702-91F1-1C30C5E45255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,27 +3816,234 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
         <v>116</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="3">
         <v>9</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="1">
-        <v>10</v>
-      </c>
-      <c r="F145" s="1">
-        <v>8</v>
-      </c>
-      <c r="G145" s="1">
-        <v>3</v>
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3">
+        <v>8</v>
+      </c>
+      <c r="G145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>117</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>4</v>
+      </c>
+      <c r="G146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>117</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="1">
+        <v>7</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>117</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>117</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1">
+        <v>4</v>
+      </c>
+      <c r="F149" s="1">
+        <v>6</v>
+      </c>
+      <c r="G149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>117</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="1">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1">
+        <v>6</v>
+      </c>
+      <c r="G150" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>4</v>
+      </c>
+      <c r="G151" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1">
+        <v>6</v>
+      </c>
+      <c r="G152" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>8</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5</v>
+      </c>
+      <c r="F153" s="1">
+        <v>5</v>
+      </c>
+      <c r="G153" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>117</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="3">
+        <v>9</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3">
+        <v>7</v>
+      </c>
+      <c r="F154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C9558-17A7-48CF-A2C1-FC970F0DA12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3609,27 +3609,441 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
         <v>115</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
         <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="1">
-        <v>10</v>
-      </c>
-      <c r="F136" s="1">
+      <c r="E136" s="3">
+        <v>10</v>
+      </c>
+      <c r="F136" s="3">
         <v>0</v>
       </c>
-      <c r="G136" s="1">
-        <v>1</v>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>116</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>10</v>
+      </c>
+      <c r="G137" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>116</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>8</v>
+      </c>
+      <c r="F138" s="1">
+        <v>7</v>
+      </c>
+      <c r="G138" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>116</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>116</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>116</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1">
+        <v>8</v>
+      </c>
+      <c r="F141" s="1">
+        <v>7</v>
+      </c>
+      <c r="G141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>116</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>10</v>
+      </c>
+      <c r="G142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>116</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1">
+        <v>9</v>
+      </c>
+      <c r="F143" s="1">
+        <v>10</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>116</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="1">
+        <v>8</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="1">
+        <v>8</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>116</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="3">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3">
+        <v>8</v>
+      </c>
+      <c r="G145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>117</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>4</v>
+      </c>
+      <c r="G146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>117</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="1">
+        <v>7</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>117</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>117</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1">
+        <v>4</v>
+      </c>
+      <c r="F149" s="1">
+        <v>6</v>
+      </c>
+      <c r="G149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>117</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="1">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1">
+        <v>6</v>
+      </c>
+      <c r="G150" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>4</v>
+      </c>
+      <c r="G151" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1">
+        <v>6</v>
+      </c>
+      <c r="G152" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>8</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5</v>
+      </c>
+      <c r="F153" s="1">
+        <v>5</v>
+      </c>
+      <c r="G153" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>117</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="3">
+        <v>9</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3">
+        <v>7</v>
+      </c>
+      <c r="F154" s="3">
+        <v>4</v>
+      </c>
+      <c r="G154" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9629180-0360-48E7-9718-3259AC387DEA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4043,6 +4043,339 @@
         <v>4</v>
       </c>
       <c r="G154" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>118</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>118</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>10</v>
+      </c>
+      <c r="G156" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>118</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>5</v>
+      </c>
+      <c r="F157" s="1">
+        <v>7</v>
+      </c>
+      <c r="G157" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>118</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="1">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>6</v>
+      </c>
+      <c r="G158" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>118</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="1">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>10</v>
+      </c>
+      <c r="G159" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>118</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="1">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="1">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1">
+        <v>9</v>
+      </c>
+      <c r="G160" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>118</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="1">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>9</v>
+      </c>
+      <c r="G161" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>118</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="1">
+        <v>8</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="1">
+        <v>9</v>
+      </c>
+      <c r="F162" s="1">
+        <v>9</v>
+      </c>
+      <c r="G162" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>118</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="3">
+        <v>9</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="3">
+        <v>10</v>
+      </c>
+      <c r="F163" s="3">
+        <v>4</v>
+      </c>
+      <c r="G163" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>119</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>119</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>119</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>119</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>119</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="1">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>119</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="1">
+        <v>6</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>119</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="1">
+        <v>7</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>119</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="1">
+        <v>8</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>119</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="3">
+        <v>9</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9629180-0360-48E7-9718-3259AC387DEA}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{09DF691F-F5E0-48F6-8487-71844A0CBF40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:G163"/>
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4266,6 +4266,15 @@
       <c r="D164" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E164" s="1">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1">
+        <v>6</v>
+      </c>
+      <c r="G164" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
@@ -4280,6 +4289,15 @@
       <c r="D165" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>8</v>
+      </c>
+      <c r="G165" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
@@ -4294,6 +4312,15 @@
       <c r="D166" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E166" s="1">
+        <v>7</v>
+      </c>
+      <c r="F166" s="1">
+        <v>6</v>
+      </c>
+      <c r="G166" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
@@ -4308,6 +4335,15 @@
       <c r="D167" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E167" s="1">
+        <v>5</v>
+      </c>
+      <c r="F167" s="1">
+        <v>7</v>
+      </c>
+      <c r="G167" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
@@ -4322,6 +4358,15 @@
       <c r="D168" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E168" s="1">
+        <v>4</v>
+      </c>
+      <c r="F168" s="1">
+        <v>8</v>
+      </c>
+      <c r="G168" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
@@ -4336,6 +4381,15 @@
       <c r="D169" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F169" s="1">
+        <v>8</v>
+      </c>
+      <c r="G169" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
@@ -4350,6 +4404,15 @@
       <c r="D170" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>9</v>
+      </c>
+      <c r="G170" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
@@ -4364,6 +4427,15 @@
       <c r="D171" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E171" s="1">
+        <v>3</v>
+      </c>
+      <c r="F171" s="1">
+        <v>9</v>
+      </c>
+      <c r="G171" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
@@ -4377,6 +4449,15 @@
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E172" s="3">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>8</v>
+      </c>
+      <c r="G172" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{569A4EA6-55D9-4D4F-B21B-72CA0B4D9E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{09DF691F-F5E0-48F6-8487-71844A0CBF40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843E3E4-0605-4A3F-BE97-BA0987816749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>nicht erkannnt</t>
+  </si>
+  <si>
+    <t>nicht erfragt</t>
   </si>
 </sst>
 </file>
@@ -518,23 +521,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -557,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -603,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -626,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -649,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -695,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -718,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -741,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -764,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -787,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -833,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -856,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -879,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -902,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -925,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -948,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -971,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -994,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>114</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>114</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>114</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>114</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>114</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>114</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>115</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>115</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>115</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>115</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>115</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>115</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>115</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>115</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>116</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>116</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>116</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>116</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>116</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>116</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>117</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>117</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>117</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>117</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>117</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>118</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>118</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>118</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>118</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>118</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>118</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>118</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>118</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>118</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>119</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>119</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>119</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>119</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>119</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>119</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>119</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>119</v>
       </c>
@@ -4458,6 +4461,339 @@
       </c>
       <c r="G172" s="3">
         <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>120</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="1">
+        <v>5</v>
+      </c>
+      <c r="F173" s="1">
+        <v>7</v>
+      </c>
+      <c r="G173" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>120</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="1">
+        <v>5</v>
+      </c>
+      <c r="F174" s="1">
+        <v>8</v>
+      </c>
+      <c r="G174" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>120</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3</v>
+      </c>
+      <c r="F175" s="1">
+        <v>9</v>
+      </c>
+      <c r="G175" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>120</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="1">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1">
+        <v>7</v>
+      </c>
+      <c r="G176" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>120</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="1">
+        <v>6</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>120</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="1">
+        <v>6</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="1">
+        <v>6</v>
+      </c>
+      <c r="F178" s="1">
+        <v>8</v>
+      </c>
+      <c r="G178" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>120</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>7</v>
+      </c>
+      <c r="G179" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="1">
+        <v>8</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>120</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="3">
+        <v>9</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="3">
+        <v>9</v>
+      </c>
+      <c r="F181" s="3">
+        <v>7</v>
+      </c>
+      <c r="G181" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>121</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>121</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>121</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>121</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>121</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="1">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>121</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="1">
+        <v>6</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>121</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="1">
+        <v>7</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>121</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="1">
+        <v>8</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>121</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="3">
+        <v>9</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4471,21 +4807,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="D45" workbookViewId="0">
+    <sheetView topLeftCell="D53" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4508,7 +4844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -4531,7 +4867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -4554,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -4577,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -4600,7 +4936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -4623,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -4646,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -4669,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -4692,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -4715,7 +5051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -4738,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -4761,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -4784,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -4807,7 +5143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -4830,7 +5166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -4853,7 +5189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -4873,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -4896,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -4919,7 +5255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -4942,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -4965,7 +5301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -4988,7 +5324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -5011,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -5034,7 +5370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -5054,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -5077,7 +5413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -5100,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -5123,7 +5459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -5146,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -5169,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -5192,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -5215,7 +5551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -5238,7 +5574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -5261,7 +5597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -5284,7 +5620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -5307,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -5330,7 +5666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -5353,7 +5689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -5376,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -5399,7 +5735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -5422,7 +5758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -5445,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -5468,7 +5804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -5491,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -5514,7 +5850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -5537,7 +5873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -5560,7 +5896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5583,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -5606,7 +5942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -5629,7 +5965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -5652,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -5675,7 +6011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -5698,7 +6034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -5721,7 +6057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -5744,7 +6080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -5767,7 +6103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -5790,7 +6126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -5816,7 +6152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -5839,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -5862,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -5885,7 +6221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -5908,7 +6244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -5931,7 +6267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -5954,7 +6290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -5968,7 +6304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -5982,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -5996,7 +6332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -6010,7 +6346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -6024,7 +6360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -6038,7 +6374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -6052,7 +6388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -6066,7 +6402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>208</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/SRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843E3E4-0605-4A3F-BE97-BA0987816749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{77798F6B-55AD-4E80-B815-1DA98376526D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="32">
   <si>
     <t>Event</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>nicht erfragt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht erkannt </t>
   </si>
 </sst>
 </file>
@@ -523,21 +526,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -560,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -583,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -606,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -629,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -652,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -675,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -698,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -721,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -744,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -767,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -790,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -813,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -836,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -859,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -882,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -905,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -928,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -951,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -974,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>114</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>114</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>114</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>114</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>114</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>114</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>115</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>115</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>115</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>115</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>115</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>115</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>115</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>115</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>116</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>116</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>116</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>116</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>116</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>116</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>117</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>117</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>117</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>117</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>117</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>118</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>118</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>118</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>118</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>118</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>118</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>118</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>118</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>118</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>119</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>119</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>119</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>119</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>119</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>119</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>119</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>119</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>120</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>120</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>120</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>120</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>120</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>120</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>120</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>120</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>120</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>121</v>
       </c>
@@ -4683,8 +4686,17 @@
       <c r="D182" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E182" s="1">
+        <v>6</v>
+      </c>
+      <c r="F182" s="1">
+        <v>10</v>
+      </c>
+      <c r="G182" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>121</v>
       </c>
@@ -4697,8 +4709,17 @@
       <c r="D183" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F183" s="1">
+        <v>9</v>
+      </c>
+      <c r="G183" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>121</v>
       </c>
@@ -4711,8 +4732,17 @@
       <c r="D184" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E184" s="1">
+        <v>2</v>
+      </c>
+      <c r="F184" s="1">
+        <v>10</v>
+      </c>
+      <c r="G184" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>121</v>
       </c>
@@ -4725,8 +4755,17 @@
       <c r="D185" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G185" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>121</v>
       </c>
@@ -4739,8 +4778,17 @@
       <c r="D186" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>8</v>
+      </c>
+      <c r="G186" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>121</v>
       </c>
@@ -4753,8 +4801,17 @@
       <c r="D187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>121</v>
       </c>
@@ -4767,8 +4824,17 @@
       <c r="D188" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E188" s="1">
+        <v>8</v>
+      </c>
+      <c r="F188" s="1">
+        <v>3</v>
+      </c>
+      <c r="G188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>121</v>
       </c>
@@ -4781,8 +4847,17 @@
       <c r="D189" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E189" s="1">
+        <v>5</v>
+      </c>
+      <c r="F189" s="1">
+        <v>9</v>
+      </c>
+      <c r="G189" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>121</v>
       </c>
@@ -4793,6 +4868,15 @@
         <v>9</v>
       </c>
       <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="3">
+        <v>8</v>
+      </c>
+      <c r="F190" s="3">
+        <v>9</v>
+      </c>
+      <c r="G190" s="3">
         <v>7</v>
       </c>
     </row>
@@ -4811,17 +4895,17 @@
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.54296875" style="1"/>
-    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4844,7 +4928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -4867,7 +4951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -4890,7 +4974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -4913,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -4936,7 +5020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -4959,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -4982,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -5005,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -5028,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -5051,7 +5135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -5074,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -5097,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -5120,7 +5204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -5143,7 +5227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -5166,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -5189,7 +5273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -5209,7 +5293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -5232,7 +5316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -5255,7 +5339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -5278,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -5301,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -5324,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -5347,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -5370,7 +5454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -5390,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -5413,7 +5497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -5436,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -5459,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -5482,7 +5566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -5505,7 +5589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -5528,7 +5612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -5551,7 +5635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -5574,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -5597,7 +5681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -5620,7 +5704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -5643,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -5666,7 +5750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -5689,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -5712,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -5735,7 +5819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -5758,7 +5842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -5781,7 +5865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -5804,7 +5888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -5827,7 +5911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -5850,7 +5934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -5873,7 +5957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -5896,7 +5980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5919,7 +6003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -5942,7 +6026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -5965,7 +6049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -5988,7 +6072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -6011,7 +6095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -6034,7 +6118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -6057,7 +6141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -6080,7 +6164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -6103,7 +6187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -6126,7 +6210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -6152,7 +6236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -6175,7 +6259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -6198,7 +6282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -6221,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -6244,7 +6328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -6267,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -6290,7 +6374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -6304,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -6318,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -6332,7 +6416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -6346,7 +6430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -6360,7 +6444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -6374,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -6388,7 +6472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -6402,7 +6486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>208</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/SRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{77798F6B-55AD-4E80-B815-1DA98376526D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E85B03E2-DF89-4831-8029-898751E326AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>08</t>
-  </si>
-  <si>
-    <t>4 (3-4)</t>
   </si>
   <si>
     <t>nicht erkannt</t>
@@ -526,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -852,8 +849,8 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
+      <c r="E14" s="1">
+        <v>4</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
@@ -925,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
         <v>9</v>
@@ -965,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
@@ -1014,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1356,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1">
         <v>6</v>
@@ -2615,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="3">
         <v>9</v>
@@ -4247,7 +4244,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E163" s="3">
         <v>10</v>
@@ -4575,7 +4572,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G177" s="1">
         <v>7</v>
@@ -4644,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G180" s="1">
         <v>8</v>
@@ -4756,10 +4753,10 @@
         <v>13</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G185" s="1">
         <v>9</v>
@@ -4802,10 +4799,10 @@
         <v>8</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" s="1">
         <v>10</v>
@@ -4910,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -5083,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5287,7 +5284,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
         <v>9</v>
@@ -5327,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="8">
         <v>9</v>
@@ -5468,7 +5465,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -5813,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1">
         <v>6</v>
@@ -6233,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/SRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E85B03E2-DF89-4831-8029-898751E326AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDDE03-9880-4FB8-AE23-ED379E724195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="576" yWindow="1476" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -4888,8 +4888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="D53" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6371,7 +6371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -6384,8 +6384,17 @@
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -6398,8 +6407,17 @@
       <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="1">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -6412,8 +6430,17 @@
       <c r="D67" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -6426,8 +6453,17 @@
       <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -6440,8 +6476,17 @@
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -6454,8 +6499,17 @@
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -6468,8 +6522,17 @@
       <c r="D71" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -6482,8 +6545,17 @@
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>208</v>
       </c>
@@ -6495,6 +6567,15 @@
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3">
+        <v>9</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDDE03-9880-4FB8-AE23-ED379E724195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C77B0E-B7BD-42D8-9B52-F43E833CB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="1476" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4877,6 +4877,213 @@
         <v>7</v>
       </c>
     </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>122</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="1">
+        <v>5</v>
+      </c>
+      <c r="F191" s="1">
+        <v>7</v>
+      </c>
+      <c r="G191" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>122</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1">
+        <v>8</v>
+      </c>
+      <c r="G192" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>122</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="1">
+        <v>9</v>
+      </c>
+      <c r="F193" s="1">
+        <v>7</v>
+      </c>
+      <c r="G193" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>122</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="1">
+        <v>2</v>
+      </c>
+      <c r="F194" s="1">
+        <v>9</v>
+      </c>
+      <c r="G194" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>122</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="1">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1">
+        <v>6</v>
+      </c>
+      <c r="G195" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>122</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="1">
+        <v>6</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>9</v>
+      </c>
+      <c r="F196" s="1">
+        <v>9</v>
+      </c>
+      <c r="G196" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>122</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="1">
+        <v>7</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="1">
+        <v>7</v>
+      </c>
+      <c r="F197" s="1">
+        <v>7</v>
+      </c>
+      <c r="G197" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>122</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="1">
+        <v>8</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="1">
+        <v>10</v>
+      </c>
+      <c r="F198" s="1">
+        <v>4</v>
+      </c>
+      <c r="G198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>122</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="1">
+        <v>9</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="1">
+        <v>10</v>
+      </c>
+      <c r="F199" s="1">
+        <v>5</v>
+      </c>
+      <c r="G199" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4888,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C77B0E-B7BD-42D8-9B52-F43E833CB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB1D7C-8B4A-40A3-81C0-9C342F2B4213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5061,26 +5061,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
         <v>122</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C199" s="1">
-        <v>9</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="1">
-        <v>10</v>
-      </c>
-      <c r="F199" s="1">
-        <v>5</v>
-      </c>
-      <c r="G199" s="1">
+      <c r="C199" s="3">
+        <v>9</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="3">
+        <v>10</v>
+      </c>
+      <c r="F199" s="3">
+        <v>5</v>
+      </c>
+      <c r="G199" s="3">
         <v>5</v>
       </c>
     </row>
@@ -5093,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6785,7 +6785,314 @@
         <v>2</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>209</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>209</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>209</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>209</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>209</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>209</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>209</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>209</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>209</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3</v>
+      </c>
+      <c r="F82" s="3">
+        <v>9</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>210</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>210</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>210</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>210</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>210</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>210</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>210</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>210</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>210</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB1D7C-8B4A-40A3-81C0-9C342F2B4213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C0BB1D7C-8B4A-40A3-81C0-9C342F2B4213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B1CD8D-2BDF-46AE-9BEE-4C5E43E70388}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5095,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6763,7 +6763,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>208</v>
       </c>
       <c r="B73" s="4" t="s">

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C0BB1D7C-8B4A-40A3-81C0-9C342F2B4213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B1CD8D-2BDF-46AE-9BEE-4C5E43E70388}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB91295-BBA0-4329-9179-A2111F6C2AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
@@ -5093,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:G82"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7091,6 +7091,204 @@
         <v>9</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>211</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>211</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>211</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>211</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>211</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>211</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>211</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>211</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>211</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>212</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>212</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>212</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>212</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>212</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>212</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>212</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB91295-BBA0-4329-9179-A2111F6C2AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FF80A-1E5D-48B4-A4E4-9F027BEA7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5084,6 +5084,105 @@
         <v>5</v>
       </c>
     </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>123</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>123</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>123</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>123</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>123</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>123</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>123</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>123</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>123</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="3">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5093,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7101,6 +7200,18 @@
       <c r="C92" s="1">
         <v>1</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
@@ -7112,6 +7223,18 @@
       <c r="C93" s="1">
         <v>2</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
@@ -7123,6 +7246,18 @@
       <c r="C94" s="1">
         <v>3</v>
       </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1">
+        <v>10</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -7134,6 +7269,18 @@
       <c r="C95" s="1">
         <v>4</v>
       </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
@@ -7145,8 +7292,20 @@
       <c r="C96" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>10</v>
+      </c>
+      <c r="G96" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>211</v>
       </c>
@@ -7156,8 +7315,20 @@
       <c r="C97" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>211</v>
       </c>
@@ -7167,8 +7338,20 @@
       <c r="C98" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>211</v>
       </c>
@@ -7178,8 +7361,20 @@
       <c r="C99" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1">
+        <v>10</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>211</v>
       </c>
@@ -7189,8 +7384,20 @@
       <c r="C100" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>212</v>
       </c>
@@ -7201,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>212</v>
       </c>
@@ -7212,7 +7419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>212</v>
       </c>
@@ -7223,7 +7430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>212</v>
       </c>
@@ -7234,7 +7441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -7245,7 +7452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -7256,7 +7463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>212</v>
       </c>
@@ -7267,7 +7474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>212</v>
       </c>
@@ -7278,7 +7485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>212</v>
       </c>
@@ -7287,6 +7494,213 @@
       </c>
       <c r="C109" s="3">
         <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>213</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>213</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>213</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1">
+        <v>8</v>
+      </c>
+      <c r="F112" s="1">
+        <v>8</v>
+      </c>
+      <c r="G112" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>213</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>7</v>
+      </c>
+      <c r="G113" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>213</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>213</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>5</v>
+      </c>
+      <c r="G115" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>213</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>9</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>213</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1">
+        <v>3</v>
+      </c>
+      <c r="G117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>213</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="3">
+        <v>9</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3">
+        <v>9</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2</v>
+      </c>
+      <c r="G118" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88FF80A-1E5D-48B4-A4E4-9F027BEA7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6B14C5-548D-4429-A743-5A589E990B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -521,23 +521,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView topLeftCell="D197" workbookViewId="0">
+      <selection activeCell="M213" sqref="M213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -928,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>114</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>114</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>114</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>114</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>114</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>114</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>115</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>115</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>115</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>115</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>115</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>115</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>115</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>115</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>116</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>116</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>116</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>116</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>116</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>116</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>117</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>117</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>117</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>117</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>117</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>118</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>118</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>118</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>118</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>118</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>118</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>118</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>118</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>118</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>119</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>119</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>119</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>119</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>119</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>119</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>119</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>119</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>120</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>120</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>120</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>120</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>120</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>120</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>120</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>120</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>120</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>121</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>121</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>121</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>121</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>121</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>121</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>121</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>121</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>121</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>122</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>122</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>122</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>122</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>122</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>122</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>122</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>122</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>122</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>123</v>
       </c>
@@ -5094,8 +5094,20 @@
       <c r="C200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="1">
+        <v>5</v>
+      </c>
+      <c r="F200" s="1">
+        <v>8</v>
+      </c>
+      <c r="G200" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>123</v>
       </c>
@@ -5105,8 +5117,20 @@
       <c r="C201" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>10</v>
+      </c>
+      <c r="G201" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>123</v>
       </c>
@@ -5116,8 +5140,20 @@
       <c r="C202" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="1">
+        <v>9</v>
+      </c>
+      <c r="F202" s="1">
+        <v>8</v>
+      </c>
+      <c r="G202" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>123</v>
       </c>
@@ -5127,8 +5163,20 @@
       <c r="C203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>10</v>
+      </c>
+      <c r="F203" s="1">
+        <v>7</v>
+      </c>
+      <c r="G203" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>123</v>
       </c>
@@ -5138,8 +5186,20 @@
       <c r="C204" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="1">
+        <v>10</v>
+      </c>
+      <c r="F204" s="1">
+        <v>8</v>
+      </c>
+      <c r="G204" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>123</v>
       </c>
@@ -5149,8 +5209,20 @@
       <c r="C205" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="1">
+        <v>4</v>
+      </c>
+      <c r="F205" s="1">
+        <v>9</v>
+      </c>
+      <c r="G205" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>123</v>
       </c>
@@ -5160,8 +5232,20 @@
       <c r="C206" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="1">
+        <v>5</v>
+      </c>
+      <c r="F206" s="1">
+        <v>9</v>
+      </c>
+      <c r="G206" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>123</v>
       </c>
@@ -5171,8 +5255,20 @@
       <c r="C207" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1">
+        <v>8</v>
+      </c>
+      <c r="F207" s="1">
+        <v>8</v>
+      </c>
+      <c r="G207" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>123</v>
       </c>
@@ -5181,6 +5277,225 @@
       </c>
       <c r="C208" s="3">
         <v>9</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="3">
+        <v>8</v>
+      </c>
+      <c r="F208" s="3">
+        <v>8</v>
+      </c>
+      <c r="G208" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>124</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2</v>
+      </c>
+      <c r="F209" s="1">
+        <v>9</v>
+      </c>
+      <c r="G209" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>124</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>6</v>
+      </c>
+      <c r="F210" s="1">
+        <v>8</v>
+      </c>
+      <c r="G210" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>124</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="1">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>8</v>
+      </c>
+      <c r="G211" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>124</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" s="1">
+        <v>4</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" s="1">
+        <v>9</v>
+      </c>
+      <c r="F212" s="1">
+        <v>5</v>
+      </c>
+      <c r="G212" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>124</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="1">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="1">
+        <v>8</v>
+      </c>
+      <c r="F213" s="1">
+        <v>10</v>
+      </c>
+      <c r="G213" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>124</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="1">
+        <v>6</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1">
+        <v>8</v>
+      </c>
+      <c r="F214" s="1">
+        <v>9</v>
+      </c>
+      <c r="G214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>124</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" s="1">
+        <v>7</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="1">
+        <v>7</v>
+      </c>
+      <c r="F215" s="1">
+        <v>10</v>
+      </c>
+      <c r="G215" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>124</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" s="1">
+        <v>8</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="1">
+        <v>3</v>
+      </c>
+      <c r="F216" s="1">
+        <v>7</v>
+      </c>
+      <c r="G216" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="3">
+        <v>124</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" s="3">
+        <v>9</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="3">
+        <v>10</v>
+      </c>
+      <c r="F217" s="3">
+        <v>8</v>
+      </c>
+      <c r="G217" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5192,23 +5507,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.54296875" style="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5231,7 +5546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -5254,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -5277,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -5300,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -5323,7 +5638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -5346,7 +5661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -5369,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -5392,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -5415,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -5438,7 +5753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -5461,7 +5776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -5484,7 +5799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -5507,7 +5822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -5530,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -5553,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -5576,7 +5891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -5596,7 +5911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -5619,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -5642,7 +5957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -5665,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -5688,7 +6003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -5711,7 +6026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -5734,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -5757,7 +6072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -5777,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -5800,7 +6115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -5823,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -5846,7 +6161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -5869,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -5892,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -5915,7 +6230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -5938,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -5961,7 +6276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -5984,7 +6299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -6007,7 +6322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -6030,7 +6345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -6053,7 +6368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -6076,7 +6391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -6099,7 +6414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -6122,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -6145,7 +6460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -6168,7 +6483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -6191,7 +6506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -6214,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -6237,7 +6552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -6260,7 +6575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -6283,7 +6598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -6306,7 +6621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -6329,7 +6644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -6352,7 +6667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -6375,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -6398,7 +6713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -6421,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -6444,7 +6759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -6467,7 +6782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -6490,7 +6805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -6513,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -6539,7 +6854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -6562,7 +6877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -6585,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -6608,7 +6923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -6631,7 +6946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -6654,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -6677,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -6700,7 +7015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -6723,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -6746,7 +7061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -6769,7 +7084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -6792,7 +7107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -6815,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -6838,7 +7153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -6861,7 +7176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>208</v>
       </c>
@@ -6884,7 +7199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>209</v>
       </c>
@@ -6907,7 +7222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>209</v>
       </c>
@@ -6930,7 +7245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>209</v>
       </c>
@@ -6953,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>209</v>
       </c>
@@ -6976,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>209</v>
       </c>
@@ -6999,7 +7314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>209</v>
       </c>
@@ -7022,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>209</v>
       </c>
@@ -7045,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>209</v>
       </c>
@@ -7068,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>209</v>
       </c>
@@ -7091,7 +7406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>210</v>
       </c>
@@ -7101,8 +7416,20 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1">
+        <v>6</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>210</v>
       </c>
@@ -7112,8 +7439,20 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4</v>
+      </c>
+      <c r="G84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>210</v>
       </c>
@@ -7123,8 +7462,20 @@
       <c r="C85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>9</v>
+      </c>
+      <c r="G85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>210</v>
       </c>
@@ -7134,8 +7485,11 @@
       <c r="C86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>210</v>
       </c>
@@ -7145,8 +7499,11 @@
       <c r="C87" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>210</v>
       </c>
@@ -7156,8 +7513,11 @@
       <c r="C88" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>210</v>
       </c>
@@ -7167,8 +7527,11 @@
       <c r="C89" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>210</v>
       </c>
@@ -7178,8 +7541,11 @@
       <c r="C90" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>210</v>
       </c>
@@ -7189,8 +7555,11 @@
       <c r="C91" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>211</v>
       </c>
@@ -7213,7 +7582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>211</v>
       </c>
@@ -7236,7 +7605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>211</v>
       </c>
@@ -7259,7 +7628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>211</v>
       </c>
@@ -7282,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>211</v>
       </c>
@@ -7305,7 +7674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>211</v>
       </c>
@@ -7328,7 +7697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>211</v>
       </c>
@@ -7351,7 +7720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>211</v>
       </c>
@@ -7374,7 +7743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>211</v>
       </c>
@@ -7397,7 +7766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>212</v>
       </c>
@@ -7407,8 +7776,11 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>212</v>
       </c>
@@ -7418,8 +7790,11 @@
       <c r="C102" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>212</v>
       </c>
@@ -7429,8 +7804,11 @@
       <c r="C103" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>212</v>
       </c>
@@ -7440,8 +7818,11 @@
       <c r="C104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -7451,8 +7832,11 @@
       <c r="C105" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -7462,8 +7846,11 @@
       <c r="C106" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>212</v>
       </c>
@@ -7473,8 +7860,11 @@
       <c r="C107" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D107" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>212</v>
       </c>
@@ -7484,8 +7874,11 @@
       <c r="C108" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>212</v>
       </c>
@@ -7495,8 +7888,11 @@
       <c r="C109" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D109" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>213</v>
       </c>
@@ -7519,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>213</v>
       </c>
@@ -7542,7 +7938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>213</v>
       </c>
@@ -7565,7 +7961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>213</v>
       </c>
@@ -7588,7 +7984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>213</v>
       </c>
@@ -7611,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>213</v>
       </c>
@@ -7634,7 +8030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>213</v>
       </c>
@@ -7657,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>213</v>
       </c>
@@ -7680,7 +8076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>213</v>
       </c>
@@ -7701,6 +8097,537 @@
       </c>
       <c r="G118" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>214</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>10</v>
+      </c>
+      <c r="G119" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>214</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>214</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>214</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1">
+        <v>10</v>
+      </c>
+      <c r="G122" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>214</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="1">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>214</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="1">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1">
+        <v>8</v>
+      </c>
+      <c r="G124" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>214</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1">
+        <v>9</v>
+      </c>
+      <c r="G125" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>214</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>214</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="8">
+        <v>9</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3">
+        <v>7</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>215</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1">
+        <v>8</v>
+      </c>
+      <c r="F128" s="1">
+        <v>10</v>
+      </c>
+      <c r="G128" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>215</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>215</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1">
+        <v>9</v>
+      </c>
+      <c r="G130" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>215</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1">
+        <v>10</v>
+      </c>
+      <c r="G131" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>215</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>10</v>
+      </c>
+      <c r="G132" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>215</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
+        <v>9</v>
+      </c>
+      <c r="F133" s="1">
+        <v>10</v>
+      </c>
+      <c r="G133" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>215</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>10</v>
+      </c>
+      <c r="G134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>215</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1">
+        <v>7</v>
+      </c>
+      <c r="F135" s="1">
+        <v>10</v>
+      </c>
+      <c r="G135" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>215</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="3">
+        <v>9</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3">
+        <v>9</v>
+      </c>
+      <c r="F136" s="3">
+        <v>10</v>
+      </c>
+      <c r="G136" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>216</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>216</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>216</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>216</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>216</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>216</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>216</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>216</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="1">
+        <v>8</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>216</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="3">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6B14C5-548D-4429-A743-5A589E990B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C97C8-DB72-4FE8-8C19-8D742ECF658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Störfaktor Studierende" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -106,19 +106,7 @@
     <t>script</t>
   </si>
   <si>
-    <t>Nicht über Ereignis gesprochen!</t>
-  </si>
-  <si>
-    <t>nicht erfragt worden</t>
-  </si>
-  <si>
-    <t>nicht erkannnt</t>
-  </si>
-  <si>
     <t>nicht erfragt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicht erkannt </t>
   </si>
 </sst>
 </file>
@@ -521,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView topLeftCell="D197" workbookViewId="0">
-      <selection activeCell="M213" sqref="M213"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227:J228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -921,14 +909,14 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
+      <c r="F17" s="1">
+        <v>-99</v>
       </c>
       <c r="G17" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -951,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -974,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -997,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -1010,11 +998,17 @@
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1083,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1198,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1221,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1244,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1352,8 +1346,8 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>23</v>
+      <c r="F36" s="1">
+        <v>-99</v>
       </c>
       <c r="G36" s="1">
         <v>6</v>
@@ -2798,6 +2792,12 @@
       <c r="D99" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E99" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-99</v>
+      </c>
       <c r="G99" s="1">
         <v>1</v>
       </c>
@@ -3045,6 +3045,15 @@
       <c r="D110" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E110" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F110" s="1">
+        <v>-99</v>
+      </c>
+      <c r="G110" s="1">
+        <v>-99</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -3450,6 +3459,15 @@
       <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E128" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-99</v>
+      </c>
+      <c r="G128" s="1">
+        <v>-99</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
@@ -4571,8 +4589,8 @@
       <c r="E177" s="1">
         <v>6</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>29</v>
+      <c r="F177" s="1">
+        <v>-100</v>
       </c>
       <c r="G177" s="1">
         <v>7</v>
@@ -4640,8 +4658,8 @@
       <c r="E180" s="1">
         <v>0</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>23</v>
+      <c r="F180" s="1">
+        <v>-99</v>
       </c>
       <c r="G180" s="1">
         <v>8</v>
@@ -4752,11 +4770,11 @@
       <c r="D185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>23</v>
+      <c r="E185" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F185" s="1">
+        <v>-99</v>
       </c>
       <c r="G185" s="1">
         <v>9</v>
@@ -4798,11 +4816,11 @@
       <c r="D187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>30</v>
+      <c r="E187" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F187" s="1">
+        <v>-99</v>
       </c>
       <c r="G187" s="1">
         <v>10</v>
@@ -5496,6 +5514,148 @@
       </c>
       <c r="G217" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>125</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>125</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>125</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="1">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>125</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="1">
+        <v>4</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>125</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>125</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="1">
+        <v>6</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>125</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="1">
+        <v>7</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>125</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="1">
+        <v>8</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
+        <v>125</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="3">
+        <v>9</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I227" s="1">
+        <v>-99</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I228" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5507,10 +5667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5700,8 +5860,8 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+      <c r="F8" s="1">
+        <v>-99</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -5904,8 +6064,11 @@
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
+      <c r="E17" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-99</v>
       </c>
       <c r="G17" s="1">
         <v>9</v>
@@ -6085,8 +6248,11 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
+      <c r="E25" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-99</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -6430,8 +6596,8 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
+      <c r="F40" s="1">
+        <v>-100</v>
       </c>
       <c r="G40" s="1">
         <v>6</v>
@@ -6621,7 +6787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -6644,7 +6810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -6667,7 +6833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -6690,7 +6856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -6713,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -6736,7 +6902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -6759,7 +6925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -6782,7 +6948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -6805,7 +6971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -6828,7 +6994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -6850,11 +7016,8 @@
       <c r="G58" s="1">
         <v>2</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -6877,7 +7040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -6900,7 +7063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -6923,7 +7086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -6946,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -6969,7 +7132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -7488,6 +7651,15 @@
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E86" s="1">
+        <v>-100</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-100</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -7502,6 +7674,15 @@
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-99</v>
+      </c>
+      <c r="G87" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -7516,6 +7697,15 @@
       <c r="D88" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -7530,6 +7720,15 @@
       <c r="D89" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
@@ -7544,6 +7743,15 @@
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -7558,6 +7766,15 @@
       <c r="D91" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="E91" s="3">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3">
+        <v>7</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -7779,6 +7996,15 @@
       <c r="D101" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>10</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -7793,6 +8019,15 @@
       <c r="D102" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -7807,6 +8042,15 @@
       <c r="D103" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -7821,6 +8065,15 @@
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -7835,6 +8088,15 @@
       <c r="D105" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+      <c r="G105" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
@@ -7849,6 +8111,15 @@
       <c r="D106" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E106" s="1">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1">
+        <v>-100</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -7863,6 +8134,15 @@
       <c r="D107" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E107" s="1">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
@@ -7877,6 +8157,15 @@
       <c r="D108" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E108" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-99</v>
+      </c>
+      <c r="G108" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7891,6 +8180,15 @@
       <c r="D109" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3">
+        <v>9</v>
+      </c>
+      <c r="G109" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -8135,8 +8433,11 @@
       <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>23</v>
+      <c r="E120" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F120" s="1">
+        <v>-99</v>
       </c>
       <c r="G120" s="1">
         <v>10</v>
@@ -8155,8 +8456,11 @@
       <c r="D121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>23</v>
+      <c r="E121" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F121" s="1">
+        <v>-99</v>
       </c>
       <c r="G121" s="1">
         <v>10</v>
@@ -8336,8 +8640,11 @@
       <c r="D129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>23</v>
+      <c r="E129" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F129" s="1">
+        <v>-99</v>
       </c>
       <c r="G129" s="1">
         <v>10</v>
@@ -8517,6 +8824,15 @@
       <c r="D137" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E137" s="1">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1">
+        <v>10</v>
+      </c>
+      <c r="G137" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -8531,6 +8847,15 @@
       <c r="D138" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>10</v>
+      </c>
+      <c r="G138" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -8545,6 +8870,15 @@
       <c r="D139" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E139" s="1">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1">
+        <v>10</v>
+      </c>
+      <c r="G139" s="1">
+        <v>-100</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -8559,6 +8893,15 @@
       <c r="D140" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E140" s="1">
+        <v>6</v>
+      </c>
+      <c r="F140" s="1">
+        <v>8</v>
+      </c>
+      <c r="G140" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -8573,6 +8916,15 @@
       <c r="D141" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E141" s="1">
+        <v>6</v>
+      </c>
+      <c r="F141" s="1">
+        <v>10</v>
+      </c>
+      <c r="G141" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -8587,6 +8939,15 @@
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>10</v>
+      </c>
+      <c r="G142" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -8601,6 +8962,15 @@
       <c r="D143" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E143" s="1">
+        <v>5</v>
+      </c>
+      <c r="F143" s="1">
+        <v>10</v>
+      </c>
+      <c r="G143" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
@@ -8615,8 +8985,17 @@
       <c r="D144" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>216</v>
       </c>
@@ -8628,6 +9007,31 @@
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L146" s="1">
+        <v>-99</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L147" s="1">
+        <v>-100</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/SRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BCBBD0FC-4723-442C-8B9A-91266470354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{BCBBD0FC-4723-442C-8B9A-91266470354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{08CBF295-4661-44F1-A0FD-C7041A291FDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>head on table</t>
-  </si>
-  <si>
-    <t>locking at phone</t>
   </si>
   <si>
     <t>clicking pen</t>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Script</t>
+  </si>
+  <si>
+    <t>looking  at phone</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:I228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -747,7 +747,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -807,7 +807,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -827,10 +827,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -847,10 +847,10 @@
         <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -887,10 +887,10 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -927,7 +927,7 @@
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -967,10 +967,10 @@
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -987,7 +987,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -1007,10 +1007,10 @@
         <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1027,7 +1027,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -1047,10 +1047,10 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -1087,7 +1087,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -1107,10 +1107,10 @@
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -1147,10 +1147,10 @@
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1167,7 +1167,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1187,10 +1187,10 @@
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1247,7 +1247,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -1267,10 +1267,10 @@
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -1287,10 +1287,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
@@ -1307,7 +1307,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1327,10 +1327,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -1347,7 +1347,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -1387,7 +1387,7 @@
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1407,7 +1407,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -1447,10 +1447,10 @@
         <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1487,10 +1487,10 @@
         <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1507,7 +1507,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
@@ -1527,7 +1527,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -1547,7 +1547,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
@@ -1587,7 +1587,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -1647,7 +1647,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -1667,10 +1667,10 @@
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -1707,10 +1707,10 @@
         <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -1727,7 +1727,7 @@
         <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
@@ -1787,7 +1787,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -1807,7 +1807,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -1827,7 +1827,7 @@
         <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -1847,10 +1847,10 @@
         <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -1867,7 +1867,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -1887,10 +1887,10 @@
         <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
@@ -1907,7 +1907,7 @@
         <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -1927,10 +1927,10 @@
         <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -1947,7 +1947,7 @@
         <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -1967,7 +1967,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -2187,7 +2187,7 @@
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -2207,7 +2207,7 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
@@ -2267,10 +2267,10 @@
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
         <v>8</v>
@@ -2287,10 +2287,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -2307,10 +2307,10 @@
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -2327,10 +2327,10 @@
         <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="3">
         <v>9</v>
@@ -2347,7 +2347,7 @@
         <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -2367,7 +2367,7 @@
         <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -2387,7 +2387,7 @@
         <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -2407,10 +2407,10 @@
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -2427,7 +2427,7 @@
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1</v>
@@ -2447,10 +2447,10 @@
         <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -2467,7 +2467,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -2487,10 +2487,10 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="1">
         <v>-99</v>
@@ -2507,7 +2507,7 @@
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>5</v>
@@ -2527,7 +2527,7 @@
         <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
@@ -2547,10 +2547,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
@@ -2587,10 +2587,10 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -2607,7 +2607,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -2627,10 +2627,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -2647,7 +2647,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -2667,7 +2667,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>6</v>
@@ -2687,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>-99</v>
@@ -2727,10 +2727,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1">
         <v>4</v>
@@ -2747,7 +2747,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -2767,10 +2767,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1">
         <v>5</v>
@@ -2787,7 +2787,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>6</v>
@@ -2827,7 +2827,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -2847,7 +2847,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>5</v>
@@ -2887,10 +2887,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -2907,10 +2907,10 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -2927,10 +2927,10 @@
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -2947,7 +2947,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
@@ -2967,7 +2967,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
@@ -2987,7 +2987,7 @@
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>7</v>
@@ -3027,7 +3027,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -3047,7 +3047,7 @@
         <v>114</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>5</v>
@@ -3067,10 +3067,10 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="1">
         <v>-99</v>
@@ -3087,7 +3087,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
@@ -3107,10 +3107,10 @@
         <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -3127,7 +3127,7 @@
         <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -3147,10 +3147,10 @@
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3167,7 +3167,7 @@
         <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>7</v>
@@ -3227,7 +3227,7 @@
         <v>115</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>5</v>
@@ -3247,7 +3247,7 @@
         <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>6</v>
@@ -3267,7 +3267,7 @@
         <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1</v>
@@ -3287,10 +3287,10 @@
         <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="1">
         <v>5</v>
@@ -3307,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -3327,10 +3327,10 @@
         <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>8</v>
@@ -3347,7 +3347,7 @@
         <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>7</v>
@@ -3367,10 +3367,10 @@
         <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -3387,7 +3387,7 @@
         <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
@@ -3407,7 +3407,7 @@
         <v>116</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3550,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3570,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
@@ -3607,7 +3607,7 @@
         <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
@@ -3627,7 +3627,7 @@
         <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>7</v>
@@ -3647,7 +3647,7 @@
         <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1</v>
@@ -3667,7 +3667,7 @@
         <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
@@ -3687,7 +3687,7 @@
         <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>6</v>
@@ -3707,10 +3707,10 @@
         <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1">
         <v>9</v>
@@ -3727,10 +3727,10 @@
         <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3747,10 +3747,10 @@
         <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -3767,10 +3767,10 @@
         <v>118</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" s="3">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>7</v>
@@ -3807,7 +3807,7 @@
         <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>8</v>
@@ -3827,7 +3827,7 @@
         <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
@@ -3847,10 +3847,10 @@
         <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
         <v>5</v>
@@ -3867,7 +3867,7 @@
         <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>1</v>
@@ -3887,10 +3887,10 @@
         <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3907,7 +3907,7 @@
         <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>6</v>
@@ -3927,10 +3927,10 @@
         <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -3947,7 +3947,7 @@
         <v>119</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>5</v>
@@ -3967,7 +3967,7 @@
         <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>8</v>
@@ -3987,10 +3987,10 @@
         <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D174" s="1">
         <v>5</v>
@@ -4007,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
@@ -4027,10 +4027,10 @@
         <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" s="1">
         <v>6</v>
@@ -4047,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
@@ -4067,10 +4067,10 @@
         <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D178" s="1">
         <v>6</v>
@@ -4087,7 +4087,7 @@
         <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>6</v>
@@ -4127,7 +4127,7 @@
         <v>120</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>5</v>
@@ -4147,10 +4147,10 @@
         <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D182" s="1">
         <v>6</v>
@@ -4167,10 +4167,10 @@
         <v>121</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183" s="1">
         <v>3</v>
@@ -4187,7 +4187,7 @@
         <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>8</v>
@@ -4207,10 +4207,10 @@
         <v>121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D185" s="1">
         <v>-99</v>
@@ -4227,7 +4227,7 @@
         <v>121</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         <v>121</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>6</v>
@@ -4267,7 +4267,7 @@
         <v>121</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
@@ -4287,7 +4287,7 @@
         <v>121</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1</v>
@@ -4307,7 +4307,7 @@
         <v>121</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>5</v>
@@ -4327,10 +4327,10 @@
         <v>122</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4347,10 +4347,10 @@
         <v>122</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D192" s="1">
         <v>3</v>
@@ -4367,10 +4367,10 @@
         <v>122</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D193" s="1">
         <v>9</v>
@@ -4387,7 +4387,7 @@
         <v>122</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>6</v>
@@ -4407,7 +4407,7 @@
         <v>122</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>8</v>
@@ -4427,7 +4427,7 @@
         <v>122</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>122</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>7</v>
@@ -4467,7 +4467,7 @@
         <v>122</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
@@ -4487,7 +4487,7 @@
         <v>122</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>5</v>
@@ -4507,10 +4507,10 @@
         <v>123</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D200" s="1">
         <v>5</v>
@@ -4527,7 +4527,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>6</v>
@@ -4547,10 +4547,10 @@
         <v>123</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D202" s="1">
         <v>9</v>
@@ -4567,7 +4567,7 @@
         <v>123</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>1</v>
@@ -4587,10 +4587,10 @@
         <v>123</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D204" s="1">
         <v>10</v>
@@ -4607,7 +4607,7 @@
         <v>123</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>123</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>8</v>
@@ -4647,7 +4647,7 @@
         <v>123</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>7</v>
@@ -4667,7 +4667,7 @@
         <v>123</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>5</v>
@@ -4687,7 +4687,7 @@
         <v>124</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>6</v>
@@ -4707,7 +4707,7 @@
         <v>124</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1</v>
@@ -4727,10 +4727,10 @@
         <v>124</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -4747,7 +4747,7 @@
         <v>124</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
@@ -4767,10 +4767,10 @@
         <v>124</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D213" s="1">
         <v>8</v>
@@ -4787,7 +4787,7 @@
         <v>124</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>7</v>
@@ -4807,10 +4807,10 @@
         <v>124</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D215" s="1">
         <v>7</v>
@@ -4827,7 +4827,7 @@
         <v>124</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>8</v>
@@ -4847,7 +4847,7 @@
         <v>124</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>5</v>
@@ -4914,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4936,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -4947,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4966,7 +4966,7 @@
         <v>-99</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>-100</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,19 +5007,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -5150,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -5207,7 +5207,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -5227,7 +5227,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -5247,7 +5247,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -5267,7 +5267,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -5287,7 +5287,7 @@
         <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -5307,10 +5307,10 @@
         <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -5327,10 +5327,10 @@
         <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>-99</v>
@@ -5347,10 +5347,10 @@
         <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -5367,10 +5367,10 @@
         <v>202</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8">
         <v>9</v>
@@ -5387,7 +5387,7 @@
         <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -5407,7 +5407,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -5427,7 +5427,7 @@
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -5447,10 +5447,10 @@
         <v>203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -5467,7 +5467,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -5487,10 +5487,10 @@
         <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>-99</v>
@@ -5507,7 +5507,7 @@
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -5527,10 +5527,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -5547,7 +5547,7 @@
         <v>203</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -5567,7 +5567,7 @@
         <v>204</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -5587,10 +5587,10 @@
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -5627,10 +5627,10 @@
         <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -5647,7 +5647,7 @@
         <v>204</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -5667,10 +5667,10 @@
         <v>204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -5727,7 +5727,7 @@
         <v>204</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -5747,10 +5747,10 @@
         <v>205</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -5767,10 +5767,10 @@
         <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -5787,7 +5787,7 @@
         <v>205</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -5807,10 +5807,10 @@
         <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5827,7 +5827,7 @@
         <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -5867,7 +5867,7 @@
         <v>205</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -5887,7 +5887,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>205</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -5927,10 +5927,10 @@
         <v>206</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -5947,10 +5947,10 @@
         <v>206</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -5967,10 +5967,10 @@
         <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -5987,7 +5987,7 @@
         <v>206</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
@@ -6007,7 +6007,7 @@
         <v>206</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -6027,7 +6027,7 @@
         <v>206</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -6047,7 +6047,7 @@
         <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
@@ -6067,7 +6067,7 @@
         <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -6087,7 +6087,7 @@
         <v>206</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>5</v>
@@ -6107,10 +6107,10 @@
         <v>207</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -6127,7 +6127,7 @@
         <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>6</v>
@@ -6147,10 +6147,10 @@
         <v>207</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         <v>207</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -6187,10 +6187,10 @@
         <v>207</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -6207,7 +6207,7 @@
         <v>207</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -6227,7 +6227,7 @@
         <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
@@ -6247,7 +6247,7 @@
         <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>207</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -6287,7 +6287,7 @@
         <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -6307,7 +6307,7 @@
         <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -6327,10 +6327,10 @@
         <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -6347,7 +6347,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -6367,10 +6367,10 @@
         <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
@@ -6387,7 +6387,7 @@
         <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -6407,10 +6407,10 @@
         <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -6427,7 +6427,7 @@
         <v>208</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -6447,7 +6447,7 @@
         <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -6550,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -6590,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -6610,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -6647,7 +6647,7 @@
         <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -6667,7 +6667,7 @@
         <v>210</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -6687,7 +6687,7 @@
         <v>210</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -6707,7 +6707,7 @@
         <v>210</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
@@ -6727,7 +6727,7 @@
         <v>210</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>6</v>
@@ -6747,10 +6747,10 @@
         <v>210</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -6767,10 +6767,10 @@
         <v>210</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1">
         <v>8</v>
@@ -6787,10 +6787,10 @@
         <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -6807,10 +6807,10 @@
         <v>210</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="3">
         <v>9</v>
@@ -6827,7 +6827,7 @@
         <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -6847,7 +6847,7 @@
         <v>211</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -6867,7 +6867,7 @@
         <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -6887,10 +6887,10 @@
         <v>211</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -6907,7 +6907,7 @@
         <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1</v>
@@ -6927,10 +6927,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -6967,10 +6967,10 @@
         <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -6987,7 +6987,7 @@
         <v>211</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>5</v>
@@ -7007,7 +7007,7 @@
         <v>212</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
@@ -7027,10 +7027,10 @@
         <v>212</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -7047,7 +7047,7 @@
         <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
@@ -7067,10 +7067,10 @@
         <v>212</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -7087,7 +7087,7 @@
         <v>212</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -7107,10 +7107,10 @@
         <v>212</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -7127,7 +7127,7 @@
         <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -7147,7 +7147,7 @@
         <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>6</v>
@@ -7167,7 +7167,7 @@
         <v>212</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>5</v>
@@ -7187,10 +7187,10 @@
         <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -7207,10 +7207,10 @@
         <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -7227,7 +7227,7 @@
         <v>213</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -7247,10 +7247,10 @@
         <v>213</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -7267,7 +7267,7 @@
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         <v>213</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>6</v>
@@ -7307,7 +7307,7 @@
         <v>213</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -7347,7 +7347,7 @@
         <v>213</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>5</v>
@@ -7367,10 +7367,10 @@
         <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1">
         <v>5</v>
@@ -7387,10 +7387,10 @@
         <v>214</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>-99</v>
@@ -7407,10 +7407,10 @@
         <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>-99</v>
@@ -7427,7 +7427,7 @@
         <v>214</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
@@ -7447,7 +7447,7 @@
         <v>214</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
@@ -7467,7 +7467,7 @@
         <v>214</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>214</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>7</v>
@@ -7507,7 +7507,7 @@
         <v>214</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -7527,7 +7527,7 @@
         <v>214</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>5</v>
@@ -7547,10 +7547,10 @@
         <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -7567,7 +7567,7 @@
         <v>215</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>6</v>
@@ -7587,10 +7587,10 @@
         <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
@@ -7607,7 +7607,7 @@
         <v>215</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -7627,10 +7627,10 @@
         <v>215</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>215</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -7667,7 +7667,7 @@
         <v>215</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
@@ -7687,7 +7687,7 @@
         <v>215</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>7</v>
@@ -7707,7 +7707,7 @@
         <v>215</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>5</v>
@@ -7727,7 +7727,7 @@
         <v>216</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>6</v>
@@ -7747,7 +7747,7 @@
         <v>216</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1</v>
@@ -7767,10 +7767,10 @@
         <v>216</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -7787,7 +7787,7 @@
         <v>216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -7807,10 +7807,10 @@
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>6</v>
@@ -7827,7 +7827,7 @@
         <v>216</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>7</v>
@@ -7847,10 +7847,10 @@
         <v>216</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
@@ -7867,7 +7867,7 @@
         <v>216</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
@@ -7887,7 +7887,7 @@
         <v>216</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
@@ -7907,7 +7907,7 @@
         <v>-99</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -7915,7 +7915,7 @@
         <v>-100</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{BCBBD0FC-4723-442C-8B9A-91266470354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{08CBF295-4661-44F1-A0FD-C7041A291FDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAEACB-1678-4BF1-AEFE-0E6D8264E2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
     <sheet name="Rating Experts" sheetId="12" r:id="rId2"/>
+    <sheet name="Legende" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -104,6 +105,9 @@
   </si>
   <si>
     <t>looking  at phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView topLeftCell="C200" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4872,6 +4876,15 @@
       <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D218" s="1">
+        <v>4</v>
+      </c>
+      <c r="E218" s="1">
+        <v>7</v>
+      </c>
+      <c r="F218" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
@@ -4883,6 +4896,15 @@
       <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D219" s="1">
+        <v>7</v>
+      </c>
+      <c r="E219" s="1">
+        <v>4</v>
+      </c>
+      <c r="F219" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
@@ -4894,6 +4916,15 @@
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D220" s="1">
+        <v>2</v>
+      </c>
+      <c r="E220" s="1">
+        <v>8</v>
+      </c>
+      <c r="F220" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
@@ -4905,6 +4936,15 @@
       <c r="C221" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D221" s="1">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>8</v>
+      </c>
+      <c r="F221" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
@@ -4916,6 +4956,15 @@
       <c r="C222" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7</v>
+      </c>
+      <c r="F222" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
@@ -4927,6 +4976,15 @@
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>6</v>
+      </c>
+      <c r="F223" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
@@ -4938,8 +4996,17 @@
       <c r="C224" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D224" s="1">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1">
+        <v>8</v>
+      </c>
+      <c r="F224" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>125</v>
       </c>
@@ -4949,8 +5016,17 @@
       <c r="C225" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D225" s="1">
+        <v>2</v>
+      </c>
+      <c r="E225" s="1">
+        <v>8</v>
+      </c>
+      <c r="F225" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>125</v>
       </c>
@@ -4960,21 +5036,14 @@
       <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H227" s="1">
-        <v>-99</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H228" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>20</v>
+      <c r="D226" s="3">
+        <v>6</v>
+      </c>
+      <c r="E226" s="3">
+        <v>6</v>
+      </c>
+      <c r="F226" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4986,10 +5055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7903,19 +7972,564 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K146" s="1">
+      <c r="A146" s="1">
+        <v>217</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1">
+        <v>10</v>
+      </c>
+      <c r="F146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>217</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6</v>
+      </c>
+      <c r="F147" s="1">
+        <v>6</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>217</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
         <v>-99</v>
       </c>
-      <c r="L146" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K147" s="1">
-        <v>-100</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>20</v>
+      <c r="F148" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>217</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="1">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>217</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="1">
+        <v>7</v>
+      </c>
+      <c r="E150" s="1">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>217</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="1">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1">
+        <v>9</v>
+      </c>
+      <c r="F151" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>217</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>217</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1">
+        <v>9</v>
+      </c>
+      <c r="F153" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>217</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="3">
+        <v>8</v>
+      </c>
+      <c r="E154" s="3">
+        <v>9</v>
+      </c>
+      <c r="F154" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>218</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>8</v>
+      </c>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>218</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="1">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1">
+        <v>10</v>
+      </c>
+      <c r="F156" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>218</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
+        <v>8</v>
+      </c>
+      <c r="F157" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>218</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>218</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>9</v>
+      </c>
+      <c r="F159" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>218</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="1">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1">
+        <v>7</v>
+      </c>
+      <c r="F160" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>218</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="1">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1">
+        <v>9</v>
+      </c>
+      <c r="F161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>218</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="1">
+        <v>10</v>
+      </c>
+      <c r="E162" s="1">
+        <v>8</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>218</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="3">
+        <v>6</v>
+      </c>
+      <c r="E163" s="3">
+        <v>9</v>
+      </c>
+      <c r="F163" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>219</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>219</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>219</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>219</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>219</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>219</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>219</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>219</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>219</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>220</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>220</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>220</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>220</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>220</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>220</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>220</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>220</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>220</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7923,4 +8537,35 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C720AFE-1C4C-4865-B184-FC3630399157}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>-99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAEACB-1678-4BF1-AEFE-0E6D8264E2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE35BEAC-B561-46B3-AE28-BE5CDCC8EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -512,21 +512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView topLeftCell="C200" workbookViewId="0">
+    <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.54296875" style="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -666,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -706,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -946,7 +946,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -966,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -986,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>114</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>114</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>114</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>114</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>114</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>114</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>115</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>115</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>115</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>115</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>115</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>115</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>115</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>115</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>116</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>116</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>116</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>116</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>116</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>116</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>117</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>117</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>117</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>117</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>117</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>118</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>118</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>118</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>118</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>118</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>118</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>118</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>118</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>118</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>119</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>119</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>119</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>119</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>119</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>119</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>119</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>119</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>120</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>120</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>120</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>120</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>120</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>120</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>120</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>120</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>120</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>121</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>121</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>121</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>121</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>121</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>121</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>121</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>121</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>121</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>122</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>122</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>122</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>122</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>122</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>122</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>122</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>122</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>122</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>123</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>123</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>123</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>123</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>123</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>123</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>123</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>123</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>123</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>124</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>124</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>124</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>124</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>124</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>124</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>124</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>124</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>124</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>125</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>125</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>125</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>125</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>125</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>125</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>125</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>125</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>125</v>
       </c>
@@ -5057,21 +5057,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.54296875" style="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>202</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>206</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>208</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>209</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>209</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>209</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>209</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>209</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>209</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>209</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>209</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>209</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>210</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>210</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>210</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>210</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>210</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>210</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>210</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>210</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>210</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>211</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>211</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>211</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>211</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>211</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>211</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>211</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>211</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>211</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>212</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>212</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>212</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>212</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>212</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>212</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>212</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>213</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>213</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>213</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>213</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>213</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>213</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>213</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>213</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>213</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>214</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>214</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>214</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>214</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>214</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>214</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>214</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>214</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>214</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>215</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>215</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>215</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>215</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>215</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>215</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>215</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>215</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>215</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>216</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>216</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>216</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>216</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>216</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>216</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>216</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>216</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>216</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>217</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>217</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>217</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>217</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>217</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>217</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>217</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>217</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>217</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>218</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>218</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>218</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>218</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>218</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>218</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>218</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>218</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>218</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>219</v>
       </c>
@@ -8344,8 +8344,17 @@
       <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D164" s="1">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1">
+        <v>9</v>
+      </c>
+      <c r="F164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>219</v>
       </c>
@@ -8355,8 +8364,17 @@
       <c r="C165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D165" s="1">
+        <v>2</v>
+      </c>
+      <c r="E165" s="1">
+        <v>6</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>219</v>
       </c>
@@ -8366,8 +8384,17 @@
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D166" s="1">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1">
+        <v>7</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>219</v>
       </c>
@@ -8377,8 +8404,17 @@
       <c r="C167" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D167" s="1">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1">
+        <v>9</v>
+      </c>
+      <c r="F167" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>219</v>
       </c>
@@ -8388,8 +8424,17 @@
       <c r="C168" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D168" s="1">
+        <v>8</v>
+      </c>
+      <c r="E168" s="1">
+        <v>6</v>
+      </c>
+      <c r="F168" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>219</v>
       </c>
@@ -8399,8 +8444,17 @@
       <c r="C169" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D169" s="1">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1">
+        <v>8</v>
+      </c>
+      <c r="F169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>219</v>
       </c>
@@ -8410,8 +8464,17 @@
       <c r="C170" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D170" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E170" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F170" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>219</v>
       </c>
@@ -8421,8 +8484,17 @@
       <c r="C171" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>10</v>
+      </c>
+      <c r="F171" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>219</v>
       </c>
@@ -8432,8 +8504,17 @@
       <c r="C172" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D172" s="3">
+        <v>9</v>
+      </c>
+      <c r="E172" s="3">
+        <v>6</v>
+      </c>
+      <c r="F172" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>220</v>
       </c>
@@ -8444,7 +8525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>220</v>
       </c>
@@ -8455,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>220</v>
       </c>
@@ -8466,7 +8547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>220</v>
       </c>
@@ -8477,7 +8558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>220</v>
       </c>
@@ -8488,7 +8569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>220</v>
       </c>
@@ -8499,7 +8580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>220</v>
       </c>
@@ -8510,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -8521,7 +8602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>220</v>
       </c>
@@ -8547,9 +8628,9 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>-99</v>
       </c>
@@ -8557,7 +8638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>-100</v>
       </c>
